--- a/biology/Botanique/Begonia_bouffordii/Begonia_bouffordii.xlsx
+++ b/biology/Botanique/Begonia_bouffordii/Begonia_bouffordii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia bouffordii est une espèce de plantes de la famille des Begoniaceae. Ce rare bégonia est originaire de Taïwan. L'espèce fait partie de la section Platycentrum. Elle a été décrite en 2005 par le botaniste chinois Ching-I Peng. L'épithète spécifique, bouffordii, signifie « de Boufford » en hommage à David E. Boufford, botaniste à l'herbier de l'université Harvard pour son étude de la flore d'Asie de l'Est[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia bouffordii est une espèce de plantes de la famille des Begoniaceae. Ce rare bégonia est originaire de Taïwan. L'espèce fait partie de la section Platycentrum. Elle a été décrite en 2005 par le botaniste chinois Ching-I Peng. L'épithète spécifique, bouffordii, signifie « de Boufford » en hommage à David E. Boufford, botaniste à l'herbier de l'université Harvard pour son étude de la flore d'Asie de l'Est.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-(en) Ching-I Peng, Hsun-An Yang, Yoshiko Kono, Ming-Jer Jung, Tien Hiep Nguyen, Four new species of Begonia (Begoniaceae) from Vietnam: B. abbreviata, B. calciphila, B. sphenantheroides and B. tamdaoensis, dans Pytotaxa Vol 222, No 2, 14 August 2015 (DOI: https://dx.doi.org/10.11646/phytotaxa.222.2.1).
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Ching-I Peng, Hsun-An Yang, Yoshiko Kono, Ming-Jer Jung, Tien Hiep Nguyen, Four new species of Begonia (Begoniaceae) from Vietnam: B. abbreviata, B. calciphila, B. sphenantheroides and B. tamdaoensis, dans Pytotaxa Vol 222, No 2, 14 August 2015 (DOI: https://dx.doi.org/10.11646/phytotaxa.222.2.1).
 </t>
         </is>
       </c>
@@ -543,9 +560,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Taïwan[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Taïwan.
 </t>
         </is>
       </c>
